--- a/N 8761 UG KABUL.xlsx
+++ b/N 8761 UG KABUL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
   <si>
     <t>No</t>
   </si>
@@ -95,6 +95,15 @@
   </si>
   <si>
     <t>27/01/2024</t>
+  </si>
+  <si>
+    <t>25/3/2024</t>
+  </si>
+  <si>
+    <t>25/6/2024</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -639,7 +648,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,12 +1061,24 @@
       <c r="A21" s="3">
         <v>17</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
